--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H2">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I2">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J2">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N2">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O2">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P2">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q2">
-        <v>264.2621544672288</v>
+        <v>265.050262774535</v>
       </c>
       <c r="R2">
-        <v>264.2621544672288</v>
+        <v>1060.20105109814</v>
       </c>
       <c r="S2">
-        <v>0.0231296634898399</v>
+        <v>0.0208554165749583</v>
       </c>
       <c r="T2">
-        <v>0.0231296634898399</v>
+        <v>0.01217763936635003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H3">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I3">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J3">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N3">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O3">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P3">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q3">
-        <v>0.4408893836197157</v>
+        <v>0.52953773887</v>
       </c>
       <c r="R3">
-        <v>0.4408893836197157</v>
+        <v>3.17722643322</v>
       </c>
       <c r="S3">
-        <v>3.858904087089614E-05</v>
+        <v>4.166655041458945E-05</v>
       </c>
       <c r="T3">
-        <v>3.858904087089614E-05</v>
+        <v>3.649413255053096E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H4">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I4">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J4">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N4">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O4">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P4">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q4">
-        <v>0.7701553231521265</v>
+        <v>1.316593543673333</v>
       </c>
       <c r="R4">
-        <v>0.7701553231521265</v>
+        <v>7.899561262039999</v>
       </c>
       <c r="S4">
-        <v>6.740818977780129E-05</v>
+        <v>0.0001035958482960085</v>
       </c>
       <c r="T4">
-        <v>6.740818977780129E-05</v>
+        <v>9.073562802250724E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H5">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I5">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J5">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N5">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P5">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q5">
-        <v>5.258170075180217</v>
+        <v>5.661115730900001</v>
       </c>
       <c r="R5">
-        <v>5.258170075180217</v>
+        <v>33.9666943854</v>
       </c>
       <c r="S5">
-        <v>0.0004602236921002123</v>
+        <v>0.0004454435381843066</v>
       </c>
       <c r="T5">
-        <v>0.0004602236921002123</v>
+        <v>0.0003901469011599184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H6">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I6">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J6">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N6">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O6">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P6">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q6">
-        <v>213.6311926090076</v>
+        <v>221.8382727694933</v>
       </c>
       <c r="R6">
-        <v>213.6311926090076</v>
+        <v>1331.02963661696</v>
       </c>
       <c r="S6">
-        <v>0.01869816586465574</v>
+        <v>0.0174552914698016</v>
       </c>
       <c r="T6">
-        <v>0.01869816586465574</v>
+        <v>0.01528841995002405</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.24635843996545</v>
+        <v>2.24959</v>
       </c>
       <c r="H7">
-        <v>2.24635843996545</v>
+        <v>4.49918</v>
       </c>
       <c r="I7">
-        <v>0.04272463151077646</v>
+        <v>0.0392017419201376</v>
       </c>
       <c r="J7">
-        <v>0.04272463151077646</v>
+        <v>0.0281587997889107</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N7">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O7">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P7">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q7">
-        <v>3.776972762182698</v>
+        <v>3.81685010833</v>
       </c>
       <c r="R7">
-        <v>3.776972762182698</v>
+        <v>15.26740043332</v>
       </c>
       <c r="S7">
-        <v>0.0003305812335319112</v>
+        <v>0.0003003279384827863</v>
       </c>
       <c r="T7">
-        <v>0.0003305812335319112</v>
+        <v>0.0001753638108036708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H8">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I8">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J8">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N8">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O8">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P8">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q8">
-        <v>1971.095421690709</v>
+        <v>2142.311144027541</v>
       </c>
       <c r="R8">
-        <v>1971.095421690709</v>
+        <v>12853.86686416525</v>
       </c>
       <c r="S8">
-        <v>0.1725210100628462</v>
+        <v>0.168567240319531</v>
       </c>
       <c r="T8">
-        <v>0.1725210100628462</v>
+        <v>0.1476415770129164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H9">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I9">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J9">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N9">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O9">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P9">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q9">
-        <v>3.288533870000783</v>
+        <v>4.280073474702999</v>
       </c>
       <c r="R9">
-        <v>3.288533870000783</v>
+        <v>38.520661272327</v>
       </c>
       <c r="S9">
-        <v>0.0002878304006164136</v>
+        <v>0.000336776558347696</v>
       </c>
       <c r="T9">
-        <v>0.0002878304006164136</v>
+        <v>0.000442454495439188</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H10">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I10">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J10">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N10">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O10">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P10">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q10">
-        <v>5.744483671967259</v>
+        <v>10.64157790767933</v>
       </c>
       <c r="R10">
-        <v>5.744483671967259</v>
+        <v>95.77420116911399</v>
       </c>
       <c r="S10">
-        <v>0.0005027885075838946</v>
+        <v>0.000837330014150238</v>
       </c>
       <c r="T10">
-        <v>0.0005027885075838946</v>
+        <v>0.00110007784016974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H11">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I11">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J11">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N11">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O11">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P11">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q11">
-        <v>39.21997450809441</v>
+        <v>45.75687339821</v>
       </c>
       <c r="R11">
-        <v>39.21997450809441</v>
+        <v>411.81186058389</v>
       </c>
       <c r="S11">
-        <v>0.00343274584391848</v>
+        <v>0.003600368646678365</v>
       </c>
       <c r="T11">
-        <v>0.00343274584391848</v>
+        <v>0.004730137099733939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H12">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I12">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J12">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N12">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O12">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P12">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q12">
-        <v>1593.445972356061</v>
+        <v>1793.043322994837</v>
       </c>
       <c r="R12">
-        <v>1593.445972356061</v>
+        <v>16137.38990695354</v>
       </c>
       <c r="S12">
-        <v>0.1394670727790761</v>
+        <v>0.1410851853024369</v>
       </c>
       <c r="T12">
-        <v>0.1394670727790761</v>
+        <v>0.1853566494746534</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.755281683898</v>
+        <v>18.182671</v>
       </c>
       <c r="H13">
-        <v>16.755281683898</v>
+        <v>54.548013</v>
       </c>
       <c r="I13">
-        <v>0.3186772079948267</v>
+        <v>0.3168543494417961</v>
       </c>
       <c r="J13">
-        <v>0.3186772079948267</v>
+        <v>0.341397004998666</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N13">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O13">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P13">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q13">
-        <v>28.1719254669592</v>
+        <v>30.850301510977</v>
       </c>
       <c r="R13">
-        <v>28.1719254669592</v>
+        <v>185.101809065862</v>
       </c>
       <c r="S13">
-        <v>0.002465760400785741</v>
+        <v>0.002427448600652004</v>
       </c>
       <c r="T13">
-        <v>0.002465760400785741</v>
+        <v>0.002126109075753399</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H14">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I14">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J14">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N14">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O14">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P14">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q14">
-        <v>1574.963782300413</v>
+        <v>1724.488306595025</v>
       </c>
       <c r="R14">
-        <v>1574.963782300413</v>
+        <v>10346.92983957015</v>
       </c>
       <c r="S14">
-        <v>0.1378494108122907</v>
+        <v>0.1356909502228157</v>
       </c>
       <c r="T14">
-        <v>0.1378494108122907</v>
+        <v>0.1188464961477836</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H15">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I15">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J15">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N15">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O15">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P15">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q15">
-        <v>2.627636229643759</v>
+        <v>3.445314971669666</v>
       </c>
       <c r="R15">
-        <v>2.627636229643759</v>
+        <v>31.007834745027</v>
       </c>
       <c r="S15">
-        <v>0.0002299850384853678</v>
+        <v>0.0002710937850577939</v>
       </c>
       <c r="T15">
-        <v>0.0002299850384853678</v>
+        <v>0.0003561609646257212</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H16">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I16">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J16">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N16">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O16">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P16">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q16">
-        <v>4.590013061673161</v>
+        <v>8.56611175116822</v>
       </c>
       <c r="R16">
-        <v>4.590013061673161</v>
+        <v>77.09500576051398</v>
       </c>
       <c r="S16">
-        <v>0.0004017429500811688</v>
+        <v>0.0006740224556963648</v>
       </c>
       <c r="T16">
-        <v>0.0004017429500811688</v>
+        <v>0.0008855256049084147</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H17">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I17">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J17">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N17">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O17">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P17">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q17">
-        <v>31.33792444203987</v>
+        <v>36.83274175254333</v>
       </c>
       <c r="R17">
-        <v>31.33792444203987</v>
+        <v>331.49467577289</v>
       </c>
       <c r="S17">
-        <v>0.002742865879814426</v>
+        <v>0.002898175481156147</v>
       </c>
       <c r="T17">
-        <v>0.002742865879814426</v>
+        <v>0.003807601029301099</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H18">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I18">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J18">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N18">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O18">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P18">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q18">
-        <v>1273.210656316493</v>
+        <v>1443.339475847459</v>
       </c>
       <c r="R18">
-        <v>1273.210656316493</v>
+        <v>12990.05528262714</v>
       </c>
       <c r="S18">
-        <v>0.1114383332401487</v>
+        <v>0.1135688216747272</v>
       </c>
       <c r="T18">
-        <v>0.1114383332401487</v>
+        <v>0.1492058590367689</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3879676874018</v>
+        <v>14.63643766666667</v>
       </c>
       <c r="H19">
-        <v>13.3879676874018</v>
+        <v>43.909313</v>
       </c>
       <c r="I19">
-        <v>0.2546325537126753</v>
+        <v>0.2550570779736964</v>
       </c>
       <c r="J19">
-        <v>0.2546325537126753</v>
+        <v>0.2748130889707933</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N19">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O19">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P19">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q19">
-        <v>22.51020513764331</v>
+        <v>24.83345351534367</v>
       </c>
       <c r="R19">
-        <v>22.51020513764331</v>
+        <v>149.000721092062</v>
       </c>
       <c r="S19">
-        <v>0.001970215791854983</v>
+        <v>0.001954014354243131</v>
       </c>
       <c r="T19">
-        <v>0.001970215791854983</v>
+        <v>0.001711446187405519</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H20">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I20">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J20">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N20">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O20">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P20">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q20">
-        <v>1202.90545994317</v>
+        <v>1222.898602011984</v>
       </c>
       <c r="R20">
-        <v>1202.90545994317</v>
+        <v>7337.391612071906</v>
       </c>
       <c r="S20">
-        <v>0.1052848394226913</v>
+        <v>0.09622348420604701</v>
       </c>
       <c r="T20">
-        <v>0.1052848394226913</v>
+        <v>0.08427845723124289</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H21">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I21">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J21">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N21">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O21">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P21">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q21">
-        <v>2.006902001750325</v>
+        <v>2.443200598248667</v>
       </c>
       <c r="R21">
-        <v>2.006902001750325</v>
+        <v>21.988805384238</v>
       </c>
       <c r="S21">
-        <v>0.000175654997028065</v>
+        <v>0.0001922426551072967</v>
       </c>
       <c r="T21">
-        <v>0.000175654997028065</v>
+        <v>0.0002525669464190328</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H22">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I22">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J22">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N22">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O22">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P22">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q22">
-        <v>3.505700788263558</v>
+        <v>6.074547473079554</v>
       </c>
       <c r="R22">
-        <v>3.505700788263558</v>
+        <v>54.670927257716</v>
       </c>
       <c r="S22">
-        <v>0.0003068380324533305</v>
+        <v>0.0004779743160005879</v>
       </c>
       <c r="T22">
-        <v>0.0003068380324533305</v>
+        <v>0.0006279590416165257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H23">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I23">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J23">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N23">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O23">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P23">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q23">
-        <v>23.9348744639424</v>
+        <v>26.11946293007334</v>
       </c>
       <c r="R23">
-        <v>23.9348744639424</v>
+        <v>235.07516637066</v>
       </c>
       <c r="S23">
-        <v>0.00209491061305641</v>
+        <v>0.002055203697663326</v>
       </c>
       <c r="T23">
-        <v>0.00209491061305641</v>
+        <v>0.002700111075235713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H24">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I24">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J24">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N24">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O24">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P24">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q24">
-        <v>972.4363616183801</v>
+        <v>1023.525541166265</v>
       </c>
       <c r="R24">
-        <v>972.4363616183801</v>
+        <v>9211.729870496385</v>
       </c>
       <c r="S24">
-        <v>0.08511292831492699</v>
+        <v>0.08053586256690533</v>
       </c>
       <c r="T24">
-        <v>0.08511292831492699</v>
+        <v>0.1058074071771084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.2252887397804</v>
+        <v>10.37924066666667</v>
       </c>
       <c r="H25">
-        <v>10.2252887397804</v>
+        <v>31.137722</v>
       </c>
       <c r="I25">
-        <v>0.1944799573059804</v>
+        <v>0.1808704314749192</v>
       </c>
       <c r="J25">
-        <v>0.1944799573059804</v>
+        <v>0.1948801514233172</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N25">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O25">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P25">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q25">
-        <v>17.19255323126349</v>
+        <v>17.61032270900467</v>
       </c>
       <c r="R25">
-        <v>17.19255323126349</v>
+        <v>105.661936254028</v>
       </c>
       <c r="S25">
-        <v>0.001504785925824267</v>
+        <v>0.001385664033195694</v>
       </c>
       <c r="T25">
-        <v>0.001504785925824267</v>
+        <v>0.001213649951694597</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H26">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I26">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J26">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N26">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O26">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P26">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q26">
-        <v>189.3461904137869</v>
+        <v>213.3251331681348</v>
       </c>
       <c r="R26">
-        <v>189.3461904137869</v>
+        <v>1279.950799008809</v>
       </c>
       <c r="S26">
-        <v>0.01657261016502136</v>
+        <v>0.01678543711505178</v>
       </c>
       <c r="T26">
-        <v>0.01657261016502136</v>
+        <v>0.0147017202264196</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H27">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I27">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J27">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N27">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O27">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P27">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q27">
-        <v>0.3159011752953385</v>
+        <v>0.4261973086896667</v>
       </c>
       <c r="R27">
-        <v>0.3159011752953385</v>
+        <v>3.835775778207</v>
       </c>
       <c r="S27">
-        <v>2.76493919280909E-05</v>
+        <v>3.353523336594509E-05</v>
       </c>
       <c r="T27">
-        <v>2.76493919280909E-05</v>
+        <v>4.405833598146622E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H28">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I28">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J28">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N28">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O28">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P28">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q28">
-        <v>0.5518231574239211</v>
+        <v>1.059657478141556</v>
       </c>
       <c r="R28">
-        <v>0.5518231574239211</v>
+        <v>9.536917303274</v>
       </c>
       <c r="S28">
-        <v>4.829856913430655E-05</v>
+        <v>8.337889539166745E-05</v>
       </c>
       <c r="T28">
-        <v>4.829856913430655E-05</v>
+        <v>0.0001095425622014628</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H29">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I29">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J29">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N29">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O29">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P29">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q29">
-        <v>3.767525752184905</v>
+        <v>4.556336803943334</v>
       </c>
       <c r="R29">
-        <v>3.767525752184905</v>
+        <v>41.00703123549</v>
       </c>
       <c r="S29">
-        <v>0.0003297543797484981</v>
+        <v>0.0003585142723774049</v>
       </c>
       <c r="T29">
-        <v>0.0003297543797484981</v>
+        <v>0.0004710133397370337</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H30">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I30">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J30">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N30">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O30">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P30">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q30">
-        <v>153.0686547062333</v>
+        <v>178.5460560761529</v>
       </c>
       <c r="R30">
-        <v>153.0686547062333</v>
+        <v>1606.914504685376</v>
       </c>
       <c r="S30">
-        <v>0.01339740259567408</v>
+        <v>0.01404885374685163</v>
       </c>
       <c r="T30">
-        <v>0.01339740259567408</v>
+        <v>0.0184572778062678</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.60953585566889</v>
+        <v>1.810577666666667</v>
       </c>
       <c r="H31">
-        <v>1.60953585566889</v>
+        <v>5.431733</v>
       </c>
       <c r="I31">
-        <v>0.03061257950351559</v>
+        <v>0.03155143755752453</v>
       </c>
       <c r="J31">
-        <v>0.03061257950351559</v>
+        <v>0.03399532404878652</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N31">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O31">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P31">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q31">
-        <v>2.706234667834809</v>
+        <v>3.071983589523667</v>
       </c>
       <c r="R31">
-        <v>2.706234667834809</v>
+        <v>18.431901537142</v>
       </c>
       <c r="S31">
-        <v>0.0002368644020092561</v>
+        <v>0.0002417182944860946</v>
       </c>
       <c r="T31">
-        <v>0.0002368644020092561</v>
+        <v>0.0002117117781791472</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H32">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I32">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J32">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>117.640243767728</v>
+        <v>117.8215865</v>
       </c>
       <c r="N32">
-        <v>117.640243767728</v>
+        <v>235.643173</v>
       </c>
       <c r="O32">
-        <v>0.5413660146841967</v>
+        <v>0.532002292588051</v>
       </c>
       <c r="P32">
-        <v>0.5413660146841967</v>
+        <v>0.4324630118342522</v>
       </c>
       <c r="Q32">
-        <v>982.6682705758029</v>
+        <v>1193.112401645955</v>
       </c>
       <c r="R32">
-        <v>982.6682705758029</v>
+        <v>4772.449606583818</v>
       </c>
       <c r="S32">
-        <v>0.08600848073150737</v>
+        <v>0.09387976414964717</v>
       </c>
       <c r="T32">
-        <v>0.08600848073150737</v>
+        <v>0.05481712184953971</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H33">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I33">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J33">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.196268492051739</v>
+        <v>0.235393</v>
       </c>
       <c r="N33">
-        <v>0.196268492051739</v>
+        <v>0.706179</v>
       </c>
       <c r="O33">
-        <v>0.0009032035972308573</v>
+        <v>0.00106287497375686</v>
       </c>
       <c r="P33">
-        <v>0.0009032035972308573</v>
+        <v>0.001296011649079689</v>
       </c>
       <c r="Q33">
-        <v>1.639462937817473</v>
+        <v>2.383691443169</v>
       </c>
       <c r="R33">
-        <v>1.639462937817473</v>
+        <v>14.302148659014</v>
       </c>
       <c r="S33">
-        <v>0.000143494728302024</v>
+        <v>0.0001875601914635388</v>
       </c>
       <c r="T33">
-        <v>0.000143494728302024</v>
+        <v>0.0001642767740637498</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H34">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I34">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J34">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.342846141314817</v>
+        <v>0.5852593333333332</v>
       </c>
       <c r="N34">
-        <v>0.342846141314817</v>
+        <v>1.755778</v>
       </c>
       <c r="O34">
-        <v>0.001577736013025622</v>
+        <v>0.002642633802014605</v>
       </c>
       <c r="P34">
-        <v>0.001577736013025622</v>
+        <v>0.003222283218840886</v>
       </c>
       <c r="Q34">
-        <v>2.863850107490518</v>
+        <v>5.926589426624666</v>
       </c>
       <c r="R34">
-        <v>2.863850107490518</v>
+        <v>35.559536559748</v>
       </c>
       <c r="S34">
-        <v>0.0002506597639951201</v>
+        <v>0.0004663322724797384</v>
       </c>
       <c r="T34">
-        <v>0.0002506597639951201</v>
+        <v>0.0004084425419222356</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H35">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I35">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J35">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.34075291887126</v>
+        <v>2.51651</v>
       </c>
       <c r="N35">
-        <v>2.34075291887126</v>
+        <v>7.549530000000001</v>
       </c>
       <c r="O35">
-        <v>0.01077185866387472</v>
+        <v>0.01136285063790714</v>
       </c>
       <c r="P35">
-        <v>0.01077185866387472</v>
+        <v>0.01385523900466678</v>
       </c>
       <c r="Q35">
-        <v>19.55269344029945</v>
+        <v>25.48326990883</v>
       </c>
       <c r="R35">
-        <v>19.55269344029945</v>
+        <v>152.89961945298</v>
       </c>
       <c r="S35">
-        <v>0.001711358255236694</v>
+        <v>0.002005145001847591</v>
       </c>
       <c r="T35">
-        <v>0.001711358255236694</v>
+        <v>0.00175622955949908</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H36">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I36">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J36">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>95.10111512403751</v>
+        <v>98.61275733333333</v>
       </c>
       <c r="N36">
-        <v>95.10111512403751</v>
+        <v>295.838272</v>
       </c>
       <c r="O36">
-        <v>0.437643701150225</v>
+        <v>0.4452682614298567</v>
       </c>
       <c r="P36">
-        <v>0.437643701150225</v>
+        <v>0.5429357808085564</v>
       </c>
       <c r="Q36">
-        <v>794.3952285009204</v>
+        <v>998.5954800812588</v>
       </c>
       <c r="R36">
-        <v>794.3952285009204</v>
+        <v>5991.572880487553</v>
       </c>
       <c r="S36">
-        <v>0.06952979835574355</v>
+        <v>0.07857424666913412</v>
       </c>
       <c r="T36">
-        <v>0.06952979835574355</v>
+        <v>0.06882016736373377</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.353164181774471</v>
+        <v>10.126433</v>
       </c>
       <c r="H37">
-        <v>8.353164181774471</v>
+        <v>20.252866</v>
       </c>
       <c r="I37">
-        <v>0.1588730699722258</v>
+        <v>0.1764649616319262</v>
       </c>
       <c r="J37">
-        <v>0.1588730699722258</v>
+        <v>0.1267556307695262</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.68137581918618</v>
+        <v>1.696687</v>
       </c>
       <c r="N37">
-        <v>1.68137581918618</v>
+        <v>3.393374</v>
       </c>
       <c r="O37">
-        <v>0.007737485891447149</v>
+        <v>0.007661086568413697</v>
       </c>
       <c r="P37">
-        <v>0.007737485891447149</v>
+        <v>0.006227673484603961</v>
       </c>
       <c r="Q37">
-        <v>14.04480826892771</v>
+        <v>17.181387227471</v>
       </c>
       <c r="R37">
-        <v>14.04480826892771</v>
+        <v>68.72554890988401</v>
       </c>
       <c r="S37">
-        <v>0.001229278137440992</v>
+        <v>0.001351913347353988</v>
       </c>
       <c r="T37">
-        <v>0.001229278137440992</v>
+        <v>0.0007893926807676281</v>
       </c>
     </row>
   </sheetData>
